--- a/biology/Médecine/Fred_Schwarz/Fred_Schwarz.xlsx
+++ b/biology/Médecine/Fred_Schwarz/Fred_Schwarz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Charles Schwarz, (15 janvier 1913 – 24 janvier 2009) était un médecin et un activiste politique qui fonda la Christian Anti-Communism Crusade (CACC).
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Schwarz naît à Brisbane en Australie. Après des études à l'université de Brisbane, il devient médecin. Il se spécialise comme médecin généraliste et psychiatre. Il ouvre un cabinet à Strathfield, dans l'agglomération de Sydney en 1953.
-En 1940, Frederick Schwarz étudie le communisme. Il fonde la Christian Anti-Communism Crusade (CACC)[1]. D'abord installée à Sydney, l'association déménage plus tard à Long Beach en Californie. Schwarz donne de nombreuses conférences ayant pour thème le communisme. Son approche est d'expliquer cette philosophie politique en partant des textes écrits par ses penseurs importants : Karl Marx, Lénine, Leon Trotsky, Mao Zedong, etc[2].
+En 1940, Frederick Schwarz étudie le communisme. Il fonde la Christian Anti-Communism Crusade (CACC). D'abord installée à Sydney, l'association déménage plus tard à Long Beach en Californie. Schwarz donne de nombreuses conférences ayant pour thème le communisme. Son approche est d'expliquer cette philosophie politique en partant des textes écrits par ses penseurs importants : Karl Marx, Lénine, Leon Trotsky, Mao Zedong, etc.
 Schwarz a écrit une lettre d'information régulièrement durant 40 ans. Il a aussi publié 3 livres. You Can Trust the Communists (to be Communists) est publié en 1960 et se vend à plusieurs millions d'exemplaires dans le monde. Le deuxième est The Three Faces of Revolution publié en 1972.
 Son autobiographie, Beating the Unbeatable Foe: One Man's Victory over Communism, Leviathan, and the Last Enemy est publiée en 1996.
 </t>
